--- a/results/1-2021/nipa_interactive.xlsx
+++ b/results/1-2021/nipa_interactive.xlsx
@@ -2931,10 +2931,10 @@
         <v>3.60723891764511</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.215489468346083</v>
+        <v>-0.494578572511647</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.02220075881003</v>
+        <v>-0.743111654644468</v>
       </c>
       <c r="H85" t="n">
         <v>4.84492914480122</v>
@@ -2951,22 +2951,22 @@
         <v>10</v>
       </c>
       <c r="C86" t="n">
-        <v>3.9779247226374</v>
+        <v>3.97475708807877</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>-2.07038527351968</v>
+        <v>-2.08305581175421</v>
       </c>
       <c r="F86" t="n">
-        <v>9.73533346920731</v>
+        <v>9.73511035333889</v>
       </c>
       <c r="G86" t="n">
-        <v>-8.99591280221273</v>
+        <v>-8.9956896863443</v>
       </c>
       <c r="H86" t="n">
-        <v>-2.80980594051426</v>
+        <v>-2.82247647874879</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -2980,22 +2980,22 @@
         <v>12</v>
       </c>
       <c r="C87" t="n">
-        <v>5.96483941313928</v>
+        <v>5.9565474935465</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>8.03272642366606</v>
+        <v>8.01222928352948</v>
       </c>
       <c r="F87" t="n">
-        <v>2.26396929501931</v>
+        <v>2.26462074132079</v>
       </c>
       <c r="G87" t="n">
-        <v>0.468155746525628</v>
+        <v>0.467504300224153</v>
       </c>
       <c r="H87" t="n">
-        <v>5.30060138212111</v>
+        <v>5.28010424198454</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -3009,22 +3009,22 @@
         <v>13</v>
       </c>
       <c r="C88" t="n">
-        <v>1.72509082465319</v>
+        <v>1.70961158562418</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>-2.66921676917873</v>
+        <v>-2.69796604692367</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.445516346690542</v>
+        <v>-0.444304090577581</v>
       </c>
       <c r="G88" t="n">
-        <v>0.626848227081546</v>
+        <v>0.625635970968585</v>
       </c>
       <c r="H88" t="n">
-        <v>-2.85054864956974</v>
+        <v>-2.87929792731468</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -3038,22 +3038,22 @@
         <v>14</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.503296540812847</v>
+        <v>-0.527010479280138</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>-5.30631054421904</v>
+        <v>-5.33924934197215</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.630563731713391</v>
+        <v>-0.629539952741763</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.0643807751913903</v>
+        <v>-0.0654045541630182</v>
       </c>
       <c r="H89" t="n">
-        <v>-4.61136603731426</v>
+        <v>-4.64430483506737</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -3067,22 +3067,22 @@
         <v>10</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.429201887853491</v>
+        <v>-0.455332584646848</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>-1.77400666168226</v>
+        <v>-1.79634423322105</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.366278648079467</v>
+        <v>-0.365789555415146</v>
       </c>
       <c r="G90" t="n">
-        <v>0.35351260960359</v>
+        <v>0.353023516939268</v>
       </c>
       <c r="H90" t="n">
-        <v>-1.76124062320638</v>
+        <v>-1.78357819474517</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -3096,22 +3096,22 @@
         <v>12</v>
       </c>
       <c r="C91" t="n">
-        <v>-2.95717993806839</v>
+        <v>-2.98202993527857</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>-2.07918577719355</v>
+        <v>-2.09456011899743</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.900677822726151</v>
+        <v>-0.900152357006008</v>
       </c>
       <c r="G91" t="n">
-        <v>0.35196442342325</v>
+        <v>0.351438957703106</v>
       </c>
       <c r="H91" t="n">
-        <v>-1.53047237789065</v>
+        <v>-1.54584671969453</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -3125,22 +3125,22 @@
         <v>13</v>
       </c>
       <c r="C92" t="n">
-        <v>-2.79360255023428</v>
+        <v>-2.81480912273515</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>-2.01490721784229</v>
+        <v>-2.02908279674996</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.261394799322259</v>
+        <v>-0.260744086908758</v>
       </c>
       <c r="G92" t="n">
-        <v>0.190360294021364</v>
+        <v>0.189709581607862</v>
       </c>
       <c r="H92" t="n">
-        <v>-1.9438727125414</v>
+        <v>-1.95804829144906</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -3154,22 +3154,22 @@
         <v>14</v>
       </c>
       <c r="C93" t="n">
-        <v>-1.63099285027831</v>
+        <v>-1.64800956815873</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.655871744395161</v>
+        <v>-0.672051123666475</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.237594863502678</v>
+        <v>-0.237095353801723</v>
       </c>
       <c r="G93" t="n">
-        <v>0.124902449901829</v>
+        <v>0.124402940200874</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.543179330794312</v>
+        <v>-0.559358710065626</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -3183,22 +3183,22 @@
         <v>10</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.22881562237056</v>
+        <v>-1.24532761490288</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.165297750051251</v>
+        <v>-0.185616420197639</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2684075872091</v>
+        <v>-0.26765081320705</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0667114206051511</v>
+        <v>0.0659546466031014</v>
       </c>
       <c r="H94" t="n">
-        <v>0.0363984165526975</v>
+        <v>0.0160797464063098</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -3212,22 +3212,22 @@
         <v>12</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.975638273158242</v>
+        <v>-0.99456502380408</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>-1.06647638034427</v>
+        <v>-1.09150975460225</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.234777203272301</v>
+        <v>-0.234213025754885</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0411838447411523</v>
+        <v>0.0406196672237369</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.872883021813121</v>
+        <v>-0.897916396071102</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -3241,22 +3241,22 @@
         <v>13</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.752726935956203</v>
+        <v>-0.774096304336986</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>-1.12326186903414</v>
+        <v>-1.14720791888158</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.254548807789739</v>
+        <v>-0.00817091550997008</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0718971581871384</v>
+        <v>-0.17448073409263</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.940610219431537</v>
+        <v>-0.964556269278981</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -3270,13 +3270,13 @@
         <v>14</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.819403494377569</v>
+        <v>-0.8425373215073</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.922577978080624</v>
+        <v>-0.945815192347734</v>
       </c>
       <c r="F97" t="n">
         <v>-0.269808605890151</v>
@@ -3285,7 +3285,7 @@
         <v>0.0935610305286384</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.746330402719111</v>
+        <v>-0.769567616986222</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -3299,13 +3299,13 @@
         <v>10</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.899594429586466</v>
+        <v>-0.921740878927799</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.48606149088684</v>
+        <v>-0.502430649879632</v>
       </c>
       <c r="F98" t="n">
         <v>-0.0839344388098512</v>
@@ -3314,7 +3314,7 @@
         <v>-0.0969519020989223</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.305175149978067</v>
+        <v>-0.321544308970859</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -3328,13 +3328,13 @@
         <v>12</v>
       </c>
       <c r="C99" t="n">
-        <v>-1.07845958948848</v>
+        <v>-1.09683579840388</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>-1.78193701995231</v>
+        <v>-1.79188943250656</v>
       </c>
       <c r="F99" t="n">
         <v>-0.0509317248725828</v>
@@ -3343,7 +3343,7 @@
         <v>-1.06910483945744</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.661900455622285</v>
+        <v>-0.671852868176537</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -3357,13 +3357,13 @@
         <v>13</v>
       </c>
       <c r="C100" t="n">
-        <v>-1.00667880394065</v>
+        <v>-1.01996089350796</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.83613872684283</v>
+        <v>-0.839708299297897</v>
       </c>
       <c r="F100" t="n">
         <v>-0.0468485642617009</v>
@@ -3372,7 +3372,7 @@
         <v>-0.0912652429417962</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.698024919639333</v>
+        <v>-0.7015944920944</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -3386,13 +3386,13 @@
         <v>14</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.899511758629681</v>
+        <v>-0.906395123560795</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.493909796836747</v>
+        <v>-0.491552112559092</v>
       </c>
       <c r="F101" t="n">
         <v>-0.0512956288013028</v>
@@ -3401,7 +3401,7 @@
         <v>-0.0703631033649122</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.372251064670532</v>
+        <v>-0.369893380392877</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -3415,13 +3415,13 @@
         <v>10</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.849515392692516</v>
+        <v>-0.851649081643681</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.28607602713818</v>
+        <v>-0.283446482211176</v>
       </c>
       <c r="F102" t="n">
         <v>-0.0550396825305368</v>
@@ -3430,7 +3430,7 @@
         <v>-0.0661663859078631</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.16486995869978</v>
+        <v>-0.162240413772777</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -3444,13 +3444,13 @@
         <v>12</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.42463730090203</v>
+        <v>-0.42351570385658</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.0824246527903678</v>
+        <v>-0.0793559213581595</v>
       </c>
       <c r="F103" t="n">
         <v>-0.0221717971030048</v>
@@ -3459,7 +3459,7 @@
         <v>-0.0857807504173123</v>
       </c>
       <c r="H103" t="n">
-        <v>0.0255278947299494</v>
+        <v>0.0285966261621576</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -3473,13 +3473,13 @@
         <v>13</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.20067805485422</v>
+        <v>-0.197781286986399</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0596982573484077</v>
+        <v>0.0632293681828292</v>
       </c>
       <c r="F104" t="n">
         <v>-0.0591685425359476</v>
@@ -3488,7 +3488,7 @@
         <v>-0.0613667210741335</v>
       </c>
       <c r="H104" t="n">
-        <v>0.180233520958489</v>
+        <v>0.18376463179291</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -3502,13 +3502,13 @@
         <v>14</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.0141214030574686</v>
+        <v>-0.0107952875952121</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>0.25231681035026</v>
+        <v>0.256391885005655</v>
       </c>
       <c r="F105" t="n">
         <v>-0.0608485435277888</v>
@@ -3517,7 +3517,7 @@
         <v>-0.0500176528593518</v>
       </c>
       <c r="H105" t="n">
-        <v>0.3631830067374</v>
+        <v>0.367258081392795</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -3531,13 +3531,13 @@
         <v>10</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0885204327397206</v>
+        <v>0.0921541025323892</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.124491316050577</v>
+        <v>0.128351078299229</v>
       </c>
       <c r="F106" t="n">
         <v>-0.0620767991070387</v>
@@ -3546,7 +3546,7 @@
         <v>-0.0412996614749806</v>
       </c>
       <c r="H106" t="n">
-        <v>0.227867776632596</v>
+        <v>0.231727538881248</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -3560,13 +3560,13 @@
         <v>12</v>
       </c>
       <c r="C107" t="n">
-        <v>0.205757508183796</v>
+        <v>0.225338008765864</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.386523648985934</v>
+        <v>0.45337970357574</v>
       </c>
       <c r="F107" t="n">
         <v>-0.729793566081383</v>
@@ -3575,7 +3575,7 @@
         <v>0.637567592192122</v>
       </c>
       <c r="H107" t="n">
-        <v>0.478749622875195</v>
+        <v>0.545605677465001</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -3589,13 +3589,13 @@
         <v>13</v>
       </c>
       <c r="C108" t="n">
-        <v>0.165068029311214</v>
+        <v>0.200056571839199</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.103059658141919</v>
+        <v>-0.0378963795238317</v>
       </c>
       <c r="F108" t="n">
         <v>-0.0558603538729134</v>
@@ -3604,7 +3604,7 @@
         <v>-0.0341066299447315</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.0130926743242738</v>
+        <v>0.0520706042938132</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -3618,13 +3618,13 @@
         <v>14</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0349192463757059</v>
+        <v>0.08479485785139</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.268278321391775</v>
+        <v>-0.20465497094558</v>
       </c>
       <c r="F109" t="n">
         <v>-0.0257728076777513</v>
@@ -3633,7 +3633,7 @@
         <v>-0.0428687244228668</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.199636789291157</v>
+        <v>-0.136013438844962</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -3647,13 +3647,13 @@
         <v>10</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.0973000576185055</v>
+        <v>-0.0328728565586879</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.404385899926269</v>
+        <v>-0.342319779341083</v>
       </c>
       <c r="F110" t="n">
         <v>-0.0593587078902085</v>
@@ -3662,7 +3662,7 @@
         <v>-0.0293726457332482</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.315654546302812</v>
+        <v>-0.253588425717626</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -3676,7 +3676,7 @@
         <v>12</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.0826544828278846</v>
+        <v>-0.0349412954155184</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>13</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0521679779716121</v>
+        <v>0.0835903457294565</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -3734,7 +3734,7 @@
         <v>14</v>
       </c>
       <c r="C113" t="n">
-        <v>0.205514475709837</v>
+        <v>0.221031005856133</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -3792,7 +3792,7 @@
         <v>12</v>
       </c>
       <c r="C115" t="n">
-        <v>0.437352494563025</v>
+        <v>0.437352494563024</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>13</v>
       </c>
       <c r="C116" t="n">
-        <v>0.494894329960794</v>
+        <v>0.494894329960793</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>14</v>
       </c>
       <c r="C117" t="n">
-        <v>0.601943682442515</v>
+        <v>0.601943682442514</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>10</v>
       </c>
       <c r="C118" t="n">
-        <v>0.589163076206985</v>
+        <v>0.589163076206984</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>12</v>
       </c>
       <c r="C119" t="n">
-        <v>0.366484191746231</v>
+        <v>0.36648419174623</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -3937,7 +3937,7 @@
         <v>13</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0431945968119817</v>
+        <v>0.043194596811981</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>10</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.531962877715817</v>
+        <v>-0.531962877715818</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>12</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.437226560611008</v>
+        <v>-0.437226560611009</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         <v>13</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.217836211535519</v>
+        <v>-0.21783621153552</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -4082,7 +4082,7 @@
         <v>14</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0834942449881267</v>
+        <v>0.083494244988126</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>

--- a/results/1-2021/nipa_interactive.xlsx
+++ b/results/1-2021/nipa_interactive.xlsx
@@ -2951,13 +2951,13 @@
         <v>10</v>
       </c>
       <c r="C86" t="n">
-        <v>3.9779247226374</v>
+        <v>3.99205421770527</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>-2.07038527351968</v>
+        <v>-2.01386729324818</v>
       </c>
       <c r="F86" t="n">
         <v>9.73533346920731</v>
@@ -2966,7 +2966,7 @@
         <v>-8.99591280221273</v>
       </c>
       <c r="H86" t="n">
-        <v>-2.80980594051426</v>
+        <v>-2.75328796024276</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -2980,13 +2980,13 @@
         <v>12</v>
       </c>
       <c r="C87" t="n">
-        <v>5.96483941313928</v>
+        <v>5.9929710234086</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>8.03272642366606</v>
+        <v>8.08873488447187</v>
       </c>
       <c r="F87" t="n">
         <v>2.26396929501931</v>
@@ -2995,7 +2995,7 @@
         <v>0.468155746525628</v>
       </c>
       <c r="H87" t="n">
-        <v>5.30060138212111</v>
+        <v>5.35660984292693</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -3009,13 +3009,13 @@
         <v>13</v>
       </c>
       <c r="C88" t="n">
-        <v>1.72509082465319</v>
+        <v>1.76205212984415</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>-2.66921676917873</v>
+        <v>-2.6338979894922</v>
       </c>
       <c r="F88" t="n">
         <v>-0.445516346690542</v>
@@ -3024,7 +3024,7 @@
         <v>0.626848227081546</v>
       </c>
       <c r="H88" t="n">
-        <v>-2.85054864956974</v>
+        <v>-2.81522986988321</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -3038,13 +3038,13 @@
         <v>14</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.503296540812847</v>
+        <v>-0.457573815183359</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>-5.30631054421904</v>
+        <v>-5.27126486246493</v>
       </c>
       <c r="F89" t="n">
         <v>-0.630563731713391</v>
@@ -3053,7 +3053,7 @@
         <v>-0.0643807751913903</v>
       </c>
       <c r="H89" t="n">
-        <v>-4.61136603731426</v>
+        <v>-4.57632035556015</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -3067,13 +3067,13 @@
         <v>10</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.429201887853491</v>
+        <v>-0.388988141587968</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>-1.77400666168226</v>
+        <v>-1.73952459886661</v>
       </c>
       <c r="F90" t="n">
         <v>-0.366278648079467</v>
@@ -3082,7 +3082,7 @@
         <v>0.35351260960359</v>
       </c>
       <c r="H90" t="n">
-        <v>-1.76124062320638</v>
+        <v>-1.72675856039073</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -3096,13 +3096,13 @@
         <v>12</v>
       </c>
       <c r="C91" t="n">
-        <v>-2.95717993806839</v>
+        <v>-2.92246311030143</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>-2.07918577719355</v>
+        <v>-2.04516499038199</v>
       </c>
       <c r="F91" t="n">
         <v>-0.900677822726151</v>
@@ -3111,7 +3111,7 @@
         <v>0.35196442342325</v>
       </c>
       <c r="H91" t="n">
-        <v>-1.53047237789065</v>
+        <v>-1.49645159107909</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -3125,13 +3125,13 @@
         <v>13</v>
       </c>
       <c r="C92" t="n">
-        <v>-2.79360255023428</v>
+        <v>-2.75929734901217</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>-2.01490721784229</v>
+        <v>-1.98123494433516</v>
       </c>
       <c r="F92" t="n">
         <v>-0.261394799322259</v>
@@ -3140,7 +3140,7 @@
         <v>0.190360294021364</v>
       </c>
       <c r="H92" t="n">
-        <v>-1.9438727125414</v>
+        <v>-1.91020043903426</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -3154,13 +3154,13 @@
         <v>14</v>
       </c>
       <c r="C93" t="n">
-        <v>-1.63099285027831</v>
+        <v>-1.59710490158947</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.655871744395161</v>
+        <v>-0.622495072774143</v>
       </c>
       <c r="F93" t="n">
         <v>-0.237594863502678</v>
@@ -3169,7 +3169,7 @@
         <v>0.124902449901829</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.543179330794312</v>
+        <v>-0.509802659173294</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -3183,13 +3183,13 @@
         <v>10</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.22881562237056</v>
+        <v>-1.19998357405799</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.165297750051251</v>
+        <v>-0.151039288740659</v>
       </c>
       <c r="F94" t="n">
         <v>-0.2684075872091</v>
@@ -3198,7 +3198,7 @@
         <v>0.0667114206051511</v>
       </c>
       <c r="H94" t="n">
-        <v>0.0363984165526975</v>
+        <v>0.05065687786329</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -3212,13 +3212,13 @@
         <v>12</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.975638273158242</v>
+        <v>-0.951822618692193</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>-1.06647638034427</v>
+        <v>-1.05252116891882</v>
       </c>
       <c r="F95" t="n">
         <v>-0.234777203272301</v>
@@ -3227,7 +3227,7 @@
         <v>0.0411838447411523</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.872883021813121</v>
+        <v>-0.858927810387668</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -3241,13 +3241,13 @@
         <v>13</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.752726935956203</v>
+        <v>-0.73391630443542</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>-1.12326186903414</v>
+        <v>-1.10960968730806</v>
       </c>
       <c r="F96" t="n">
         <v>-0.254548807789739</v>
@@ -3256,7 +3256,7 @@
         <v>0.0718971581871384</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.940610219431537</v>
+        <v>-0.926958037705462</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -3270,13 +3270,13 @@
         <v>14</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.819403494377569</v>
+        <v>-0.805590736332638</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.922577978080624</v>
+        <v>-0.909192800363015</v>
       </c>
       <c r="F97" t="n">
         <v>-0.269808605890151</v>
@@ -3285,7 +3285,7 @@
         <v>0.0935610305286384</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.746330402719111</v>
+        <v>-0.732945225001502</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -3299,13 +3299,13 @@
         <v>10</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.899594429586466</v>
+        <v>-0.889149413528554</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.48606149088684</v>
+        <v>-0.485273997524321</v>
       </c>
       <c r="F98" t="n">
         <v>-0.0839344388098512</v>
@@ -3314,7 +3314,7 @@
         <v>-0.0969519020989223</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.305175149978067</v>
+        <v>-0.304387656615547</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -3328,13 +3328,13 @@
         <v>12</v>
       </c>
       <c r="C99" t="n">
-        <v>-1.07845958948848</v>
+        <v>-1.07133235089009</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>-1.78193701995231</v>
+        <v>-1.78125291836497</v>
       </c>
       <c r="F99" t="n">
         <v>-0.0509317248725828</v>
@@ -3343,7 +3343,7 @@
         <v>-1.06910483945744</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.661900455622285</v>
+        <v>-0.661216354034948</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -3357,13 +3357,13 @@
         <v>13</v>
       </c>
       <c r="C100" t="n">
-        <v>-1.00667880394065</v>
+        <v>-1.00281673785923</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.83613872684283</v>
+        <v>-0.835547235184603</v>
       </c>
       <c r="F100" t="n">
         <v>-0.0468485642617009</v>
@@ -3372,7 +3372,7 @@
         <v>-0.0912652429417962</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.698024919639333</v>
+        <v>-0.697433427981106</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -3386,13 +3386,13 @@
         <v>14</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.899511758629681</v>
+        <v>-0.898876021919652</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.493909796836747</v>
+        <v>-0.493429936604711</v>
       </c>
       <c r="F101" t="n">
         <v>-0.0512956288013028</v>
@@ -3401,7 +3401,7 @@
         <v>-0.0703631033649122</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.372251064670532</v>
+        <v>-0.371771204438496</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -3415,13 +3415,13 @@
         <v>10</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.849515392692516</v>
+        <v>-0.848965101004213</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.28607602713818</v>
+        <v>-0.285630313862562</v>
       </c>
       <c r="F102" t="n">
         <v>-0.0550396825305368</v>
@@ -3430,7 +3430,7 @@
         <v>-0.0661663859078631</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.16486995869978</v>
+        <v>-0.164424245424163</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -3444,13 +3444,13 @@
         <v>12</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.42463730090203</v>
+        <v>-0.424141952255229</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.0824246527903678</v>
+        <v>-0.0819603233690405</v>
       </c>
       <c r="F103" t="n">
         <v>-0.0221717971030048</v>
@@ -3459,7 +3459,7 @@
         <v>-0.0857807504173123</v>
       </c>
       <c r="H103" t="n">
-        <v>0.0255278947299494</v>
+        <v>0.0259922241512766</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -3473,13 +3473,13 @@
         <v>13</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.20067805485422</v>
+        <v>-0.200204665526177</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0596982573484077</v>
+        <v>0.0602019117316057</v>
       </c>
       <c r="F104" t="n">
         <v>-0.0591685425359476</v>
@@ -3488,7 +3488,7 @@
         <v>-0.0613667210741335</v>
       </c>
       <c r="H104" t="n">
-        <v>0.180233520958489</v>
+        <v>0.180737175341687</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -3502,13 +3502,13 @@
         <v>14</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.0141214030574686</v>
+        <v>-0.013637745646772</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>0.25231681035026</v>
+        <v>0.252837742912909</v>
       </c>
       <c r="F105" t="n">
         <v>-0.0608485435277888</v>
@@ -3517,7 +3517,7 @@
         <v>-0.0500176528593518</v>
       </c>
       <c r="H105" t="n">
-        <v>0.3631830067374</v>
+        <v>0.36370393930005</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -3531,13 +3531,13 @@
         <v>10</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0885204327397206</v>
+        <v>0.0890246278038557</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.124491316050577</v>
+        <v>0.125019179939948</v>
       </c>
       <c r="F106" t="n">
         <v>-0.0620767991070387</v>
@@ -3546,7 +3546,7 @@
         <v>-0.0412996614749806</v>
       </c>
       <c r="H106" t="n">
-        <v>0.227867776632596</v>
+        <v>0.228395640521968</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -3560,13 +3560,13 @@
         <v>12</v>
       </c>
       <c r="C107" t="n">
-        <v>0.205757508183796</v>
+        <v>0.206278648240979</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.386523648985934</v>
+        <v>0.387055758379452</v>
       </c>
       <c r="F107" t="n">
         <v>-0.729793566081383</v>
@@ -3575,7 +3575,7 @@
         <v>0.637567592192122</v>
       </c>
       <c r="H107" t="n">
-        <v>0.478749622875195</v>
+        <v>0.479281732268713</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -3589,13 +3589,13 @@
         <v>13</v>
       </c>
       <c r="C108" t="n">
-        <v>0.165068029311214</v>
+        <v>0.165601208846602</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.103059658141919</v>
+        <v>-0.1025078458459</v>
       </c>
       <c r="F108" t="n">
         <v>-0.0558603538729134</v>
@@ -3604,7 +3604,7 @@
         <v>-0.0341066299447315</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.0130926743242738</v>
+        <v>-0.0125408620282554</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -3618,13 +3618,13 @@
         <v>14</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0349192463757059</v>
+        <v>0.0354644773689043</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.268278321391775</v>
+        <v>-0.267709182997883</v>
       </c>
       <c r="F109" t="n">
         <v>-0.0257728076777513</v>
@@ -3633,7 +3633,7 @@
         <v>-0.0428687244228668</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.199636789291157</v>
+        <v>-0.199067650897264</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -3647,13 +3647,13 @@
         <v>10</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.0973000576185055</v>
+        <v>-0.096741860208471</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.404385899926269</v>
+        <v>-0.403806170369553</v>
       </c>
       <c r="F110" t="n">
         <v>-0.0593587078902085</v>
@@ -3662,7 +3662,7 @@
         <v>-0.0293726457332482</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.315654546302812</v>
+        <v>-0.315074816746096</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -3676,13 +3676,13 @@
         <v>12</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.0826544828278846</v>
+        <v>-0.0820849270391164</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.445105948148418</v>
+        <v>0.44568349105687</v>
       </c>
       <c r="F111" t="n">
         <v>-0.0598458162525843</v>
@@ -3691,7 +3691,7 @@
         <v>-0.0369822143970756</v>
       </c>
       <c r="H111" t="n">
-        <v>0.541933978798078</v>
+        <v>0.54251152170653</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -3705,13 +3705,13 @@
         <v>13</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0521679779716121</v>
+        <v>0.0527444889388151</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0.436230185056068</v>
+        <v>0.436809818065826</v>
       </c>
       <c r="F112" t="n">
         <v>-0.0295083031672856</v>
@@ -3720,7 +3720,7 @@
         <v>-0.0453782676360779</v>
       </c>
       <c r="H112" t="n">
-        <v>0.511116755859431</v>
+        <v>0.511696388869189</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -3734,13 +3734,13 @@
         <v>14</v>
       </c>
       <c r="C113" t="n">
-        <v>0.205514475709837</v>
+        <v>0.20609500701425</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0.345107669561124</v>
+        <v>0.345692889303855</v>
       </c>
       <c r="F113" t="n">
         <v>-0.0611832177682775</v>
@@ -3749,7 +3749,7 @@
         <v>-0.04094855586176</v>
       </c>
       <c r="H113" t="n">
-        <v>0.447239443191161</v>
+        <v>0.447824662933893</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -3763,13 +3763,13 @@
         <v>10</v>
       </c>
       <c r="C114" t="n">
-        <v>0.423099111471508</v>
+        <v>0.423680310993974</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0.465952643120418</v>
+        <v>0.466535045549344</v>
       </c>
       <c r="F114" t="n">
         <v>-0.0303102353998757</v>
@@ -3778,7 +3778,7 @@
         <v>-0.0529575325680284</v>
       </c>
       <c r="H114" t="n">
-        <v>0.549220411088322</v>
+        <v>0.549802813517249</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
@@ -3792,13 +3792,13 @@
         <v>12</v>
       </c>
       <c r="C115" t="n">
-        <v>0.437352494563025</v>
+        <v>0.437928466047386</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0.502119480514483</v>
+        <v>0.502676111270518</v>
       </c>
       <c r="F115" t="n">
         <v>-0.0633311128371935</v>
@@ -3807,7 +3807,7 @@
         <v>-0.0374040909948556</v>
       </c>
       <c r="H115" t="n">
-        <v>0.602854684346532</v>
+        <v>0.603411315102567</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -3821,13 +3821,13 @@
         <v>13</v>
       </c>
       <c r="C116" t="n">
-        <v>0.494894329960794</v>
+        <v>0.495453143794783</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.666397526647144</v>
+        <v>0.666908529055414</v>
       </c>
       <c r="F116" t="n">
         <v>-0.0332126673633507</v>
@@ -3836,7 +3836,7 @@
         <v>-0.0566989870392011</v>
       </c>
       <c r="H116" t="n">
-        <v>0.756309181049696</v>
+        <v>0.756820183457965</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -3850,13 +3850,13 @@
         <v>14</v>
       </c>
       <c r="C117" t="n">
-        <v>0.601943682442515</v>
+        <v>0.602471409853755</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>0.773305079488009</v>
+        <v>0.773765953539742</v>
       </c>
       <c r="F117" t="n">
         <v>-0.0341797479004674</v>
@@ -3865,7 +3865,7 @@
         <v>-0.0604878122205505</v>
       </c>
       <c r="H117" t="n">
-        <v>0.867972639609027</v>
+        <v>0.86843351366076</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -3879,13 +3879,13 @@
         <v>10</v>
       </c>
       <c r="C118" t="n">
-        <v>0.589163076206985</v>
+        <v>0.589648489221708</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>0.414830218178298</v>
+        <v>0.415243363021157</v>
       </c>
       <c r="F118" t="n">
         <v>-0.0633298069903979</v>
@@ -3894,7 +3894,7 @@
         <v>-0.054031434815406</v>
       </c>
       <c r="H118" t="n">
-        <v>0.532191459984102</v>
+        <v>0.532604604826961</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -3908,13 +3908,13 @@
         <v>12</v>
       </c>
       <c r="C119" t="n">
-        <v>0.366484191746231</v>
+        <v>0.366920196108716</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.388596057328534</v>
+        <v>-0.38823706118145</v>
       </c>
       <c r="F119" t="n">
         <v>-0.035617446280685</v>
@@ -3923,7 +3923,7 @@
         <v>-0.0678128480001447</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.285165763047704</v>
+        <v>-0.28480676690062</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -3937,13 +3937,13 @@
         <v>13</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0431945968119817</v>
+        <v>0.0435797526338893</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.626760853089853</v>
+        <v>-0.626453244843893</v>
       </c>
       <c r="F120" t="n">
         <v>-0.0666082105580615</v>
@@ -3952,7 +3952,7 @@
         <v>-0.0589783193312847</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.501174323200507</v>
+        <v>-0.500866714954546</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -3966,13 +3966,13 @@
         <v>14</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.34398504544727</v>
+        <v>-0.343649873167608</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>-0.775413489548997</v>
+        <v>-0.775152549666247</v>
       </c>
       <c r="F121" t="n">
         <v>-0.0374706387779576</v>
@@ -3981,7 +3981,7 @@
         <v>-0.0765853000109042</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.661357550760135</v>
+        <v>-0.661096610877385</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -3995,13 +3995,13 @@
         <v>10</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.531962877715817</v>
+        <v>-0.531676753069952</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.33708111089589</v>
+        <v>-0.336864156588219</v>
       </c>
       <c r="F122" t="n">
         <v>-0.0389373789876105</v>
@@ -4010,7 +4010,7 @@
         <v>-0.0781291189415826</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.220014612966697</v>
+        <v>-0.219797658659026</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -4024,13 +4024,13 @@
         <v>12</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.437226560611008</v>
+        <v>-0.436985170662436</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.009650788909299</v>
+        <v>-0.00947073155138606</v>
       </c>
       <c r="F123" t="n">
         <v>-0.0676685557477785</v>
@@ -4039,7 +4039,7 @@
         <v>-0.0661387820518505</v>
       </c>
       <c r="H123" t="n">
-        <v>0.12415654889033</v>
+        <v>0.124336606248243</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -4053,13 +4053,13 @@
         <v>13</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.217836211535519</v>
+        <v>-0.217633860102696</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>0.250800543212103</v>
+        <v>0.250951997395066</v>
       </c>
       <c r="F124" t="n">
         <v>-0.0411476250661839</v>
@@ -4068,7 +4068,7 @@
         <v>-0.0852379438016513</v>
       </c>
       <c r="H124" t="n">
-        <v>0.377186112079939</v>
+        <v>0.377337566262901</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -4082,13 +4082,13 @@
         <v>14</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0834942449881267</v>
+        <v>0.0836630458405285</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0.429908336545586</v>
+        <v>0.430035074106653</v>
       </c>
       <c r="F125" t="n">
         <v>-0.0396171959541641</v>
@@ -4097,7 +4097,7 @@
         <v>-0.0848877845486134</v>
       </c>
       <c r="H125" t="n">
-        <v>0.554413317048363</v>
+        <v>0.554540054609431</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>

--- a/results/1-2021/nipa_interactive.xlsx
+++ b/results/1-2021/nipa_interactive.xlsx
@@ -2902,10 +2902,10 @@
         <v>14.2897775847656</v>
       </c>
       <c r="F84" t="n">
-        <v>-5.51744770526355</v>
+        <v>-6.01834979281938</v>
       </c>
       <c r="G84" t="n">
-        <v>5.63089391030197</v>
+        <v>6.1317959978578</v>
       </c>
       <c r="H84" t="n">
         <v>14.1763313797272</v>
@@ -2922,22 +2922,22 @@
         <v>14</v>
       </c>
       <c r="C85" t="n">
-        <v>4.61592306458503</v>
+        <v>4.20956315864192</v>
       </c>
       <c r="D85" t="n">
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>3.60723891764511</v>
+        <v>1.98179929387269</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.215489468346083</v>
+        <v>0.343802843097872</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.02220075881003</v>
+        <v>-1.58149307025399</v>
       </c>
       <c r="H85" t="n">
-        <v>4.84492914480122</v>
+        <v>3.2194895210288</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -2951,25 +2951,25 @@
         <v>10</v>
       </c>
       <c r="C86" t="n">
-        <v>3.99205421770527</v>
+        <v>3.15537590951627</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>-2.01386729324818</v>
+        <v>-3.73514090223177</v>
       </c>
       <c r="F86" t="n">
-        <v>9.73533346920731</v>
+        <v>8.05514260132611</v>
       </c>
       <c r="G86" t="n">
-        <v>-8.99591280221273</v>
+        <v>-8.51784448466115</v>
       </c>
       <c r="H86" t="n">
-        <v>-2.75328796024276</v>
+        <v>-3.27243901889672</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2980,22 +2980,22 @@
         <v>12</v>
       </c>
       <c r="C87" t="n">
-        <v>5.9929710234086</v>
+        <v>4.66268956351715</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>8.08873488447187</v>
+        <v>6.11432227766207</v>
       </c>
       <c r="F87" t="n">
-        <v>2.26396929501931</v>
+        <v>2.12640679447392</v>
       </c>
       <c r="G87" t="n">
-        <v>0.468155746525628</v>
+        <v>-1.81519826548609</v>
       </c>
       <c r="H87" t="n">
-        <v>5.35660984292693</v>
+        <v>5.80311374867424</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -3009,22 +3009,22 @@
         <v>13</v>
       </c>
       <c r="C88" t="n">
-        <v>1.76205212984415</v>
+        <v>0.30169373943152</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>-2.6338979894922</v>
+        <v>-3.15420571157692</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.445516346690542</v>
+        <v>-0.433305045440083</v>
       </c>
       <c r="G88" t="n">
-        <v>0.626848227081546</v>
+        <v>0.631680432607448</v>
       </c>
       <c r="H88" t="n">
-        <v>-2.81522986988321</v>
+        <v>-3.35258109874428</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -3038,22 +3038,22 @@
         <v>14</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.457573815183359</v>
+        <v>-1.13028873252496</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>-5.27126486246493</v>
+        <v>-3.74613059395323</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.630563731713391</v>
+        <v>1.40282713810376</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.0643807751913903</v>
+        <v>1.00399750886878</v>
       </c>
       <c r="H89" t="n">
-        <v>-4.57632035556015</v>
+        <v>-6.15295524092578</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -3067,22 +3067,22 @@
         <v>10</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.388988141587968</v>
+        <v>-1.10552350060057</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>-1.73952459886661</v>
+        <v>-3.63607997453419</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.366278648079467</v>
+        <v>-0.265966128268555</v>
       </c>
       <c r="G90" t="n">
-        <v>0.35351260960359</v>
+        <v>0.24618470096692</v>
       </c>
       <c r="H90" t="n">
-        <v>-1.72675856039073</v>
+        <v>-3.61629854723256</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -3096,22 +3096,22 @@
         <v>12</v>
       </c>
       <c r="C91" t="n">
-        <v>-2.92246311030143</v>
+        <v>-3.65558447009658</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>-2.04516499038199</v>
+        <v>-4.08592160032198</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.900677822726151</v>
+        <v>-0.984763208100968</v>
       </c>
       <c r="G91" t="n">
-        <v>0.35196442342325</v>
+        <v>0.246874278278473</v>
       </c>
       <c r="H91" t="n">
-        <v>-1.49645159107909</v>
+        <v>-3.34803267049948</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -3125,22 +3125,22 @@
         <v>13</v>
       </c>
       <c r="C92" t="n">
-        <v>-2.75929734901217</v>
+        <v>-3.50916167314759</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>-1.98123494433516</v>
+        <v>-2.56851452378098</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.261394799322259</v>
+        <v>-0.267623733422653</v>
       </c>
       <c r="G92" t="n">
-        <v>0.190360294021364</v>
+        <v>0.191909196610438</v>
       </c>
       <c r="H92" t="n">
-        <v>-1.91020043903426</v>
+        <v>-2.49279998696876</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -3154,22 +3154,22 @@
         <v>14</v>
       </c>
       <c r="C93" t="n">
-        <v>-1.59710490158947</v>
+        <v>-2.87257806261242</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.622495072774143</v>
+        <v>-1.19979615181252</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.237594863502678</v>
+        <v>-0.770152302629177</v>
       </c>
       <c r="G93" t="n">
-        <v>0.124902449901829</v>
+        <v>0.127347402518761</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.509802659173294</v>
+        <v>-0.556991251702105</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -3183,22 +3183,22 @@
         <v>10</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.19998357405799</v>
+        <v>-2.13949253962507</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.151039288740659</v>
+        <v>-0.703737882584815</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2684075872091</v>
+        <v>-0.269538333145193</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0667114206051511</v>
+        <v>0.0699402342212125</v>
       </c>
       <c r="H94" t="n">
-        <v>0.05065687786329</v>
+        <v>-0.504139783660835</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -3212,22 +3212,22 @@
         <v>12</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.951822618692193</v>
+        <v>-1.50985260886772</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>-1.05252116891882</v>
+        <v>-1.56736187729258</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.234777203272301</v>
+        <v>-0.235875214578652</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0411838447411523</v>
+        <v>0.0447141785598412</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.858927810387668</v>
+        <v>-1.37620084127377</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -3241,22 +3241,22 @@
         <v>13</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.73391630443542</v>
+        <v>-1.26742842011695</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>-1.10960968730806</v>
+        <v>-1.59881776877788</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.254548807789739</v>
+        <v>-0.108112447817092</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0718971581871384</v>
+        <v>-0.0726245831531078</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.926958037705462</v>
+        <v>-1.41808073780768</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -3270,22 +3270,22 @@
         <v>14</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.805590736332638</v>
+        <v>-1.3529744429525</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.909192800363015</v>
+        <v>-1.54198024315473</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.269808605890151</v>
+        <v>-0.271442492977508</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0935610305286384</v>
+        <v>0.0973336462879242</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.732945225001502</v>
+        <v>-1.36787139646515</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -3299,22 +3299,22 @@
         <v>10</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.889149413528554</v>
+        <v>-1.46933557431724</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.485273997524321</v>
+        <v>-1.16918240804375</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.0839344388098512</v>
+        <v>-0.0845420277741059</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.0969519020989223</v>
+        <v>-0.0941533398099169</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.304387656615547</v>
+        <v>-0.990487040459726</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -3328,22 +3328,22 @@
         <v>12</v>
       </c>
       <c r="C99" t="n">
-        <v>-1.07133235089009</v>
+        <v>-1.52919508442819</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>-1.78125291836497</v>
+        <v>-1.80679991773641</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.0509317248725828</v>
+        <v>-0.0513597364333957</v>
       </c>
       <c r="G99" t="n">
-        <v>-1.06910483945744</v>
+        <v>-1.07191698181022</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.661216354034948</v>
+        <v>-0.683523199492799</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -3357,22 +3357,22 @@
         <v>13</v>
       </c>
       <c r="C100" t="n">
-        <v>-1.00281673785923</v>
+        <v>-1.32561961025788</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.835547235184603</v>
+        <v>-0.784515872096627</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.0468485642617009</v>
+        <v>-0.0472688848291936</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.0912652429417962</v>
+        <v>-0.088974389090114</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.697433427981106</v>
+        <v>-0.648272598177319</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -3386,22 +3386,22 @@
         <v>14</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.898876021919652</v>
+        <v>-1.04152218692463</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.493429936604711</v>
+        <v>-0.405590549821714</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.0512956288013028</v>
+        <v>-0.0517375384890388</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.0703631033649122</v>
+        <v>-0.0683292118139848</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.371771204438496</v>
+        <v>-0.285523799518691</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -3415,22 +3415,22 @@
         <v>10</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.848965101004213</v>
+        <v>-0.80037664532457</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.285630313862562</v>
+        <v>-0.204600241643529</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.0550396825305368</v>
+        <v>-0.0555072075986859</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.0661663859078631</v>
+        <v>-0.0641023261848279</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.164424245424163</v>
+        <v>-0.0849907078600149</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -3444,22 +3444,22 @@
         <v>12</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.424141952255229</v>
+        <v>-0.353191360138442</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.0819603233690405</v>
+        <v>-0.0180587769919021</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.0221717971030048</v>
+        <v>-0.0224679078334807</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.0857807504173123</v>
+        <v>-0.0837584141020364</v>
       </c>
       <c r="H103" t="n">
-        <v>0.0259922241512766</v>
+        <v>0.088167544943615</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -3473,22 +3473,22 @@
         <v>13</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.200204665526177</v>
+        <v>-0.127071560209581</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0602019117316057</v>
+        <v>0.119963327618818</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.0591685425359476</v>
+        <v>-0.0596491606794527</v>
       </c>
       <c r="G104" t="n">
-        <v>-0.0613667210741335</v>
+        <v>-0.0593619137665613</v>
       </c>
       <c r="H104" t="n">
-        <v>0.180737175341687</v>
+        <v>0.238974402064832</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -3502,22 +3502,22 @@
         <v>14</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.013637745646772</v>
+        <v>0.0520013063009374</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>0.252837742912909</v>
+        <v>0.310700916220359</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.0608485435277888</v>
+        <v>-0.0613338790140754</v>
       </c>
       <c r="G105" t="n">
-        <v>-0.0500176528593518</v>
+        <v>-0.0481704212679692</v>
       </c>
       <c r="H105" t="n">
-        <v>0.36370393930005</v>
+        <v>0.420205216502404</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -3531,22 +3531,22 @@
         <v>10</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0890246278038557</v>
+        <v>0.148987746119653</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.125019179939948</v>
+        <v>0.183345517631335</v>
       </c>
       <c r="F106" t="n">
-        <v>-0.0620767991070387</v>
+        <v>-0.0625741178247698</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.0412996614749806</v>
+        <v>-0.039539736761942</v>
       </c>
       <c r="H106" t="n">
-        <v>0.228395640521968</v>
+        <v>0.285459372218046</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -3560,22 +3560,22 @@
         <v>12</v>
       </c>
       <c r="C107" t="n">
-        <v>0.206278648240979</v>
+        <v>0.370261695930659</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.387055758379452</v>
+        <v>0.867037022252123</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.729793566081383</v>
+        <v>-0.733997425321219</v>
       </c>
       <c r="G107" t="n">
-        <v>0.637567592192122</v>
+        <v>0.643184394015549</v>
       </c>
       <c r="H107" t="n">
-        <v>0.479281732268713</v>
+        <v>0.957850053557792</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -3589,22 +3589,22 @@
         <v>13</v>
       </c>
       <c r="C108" t="n">
-        <v>0.165601208846602</v>
+        <v>0.430370390078214</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.1025078458459</v>
+        <v>0.360398104209035</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.0558603538729134</v>
+        <v>-0.0563166285121017</v>
       </c>
       <c r="G108" t="n">
-        <v>-0.0341066299447315</v>
+        <v>-0.0326034994455384</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.0125408620282554</v>
+        <v>0.449318232166675</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -3618,22 +3618,22 @@
         <v>14</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0354644773689043</v>
+        <v>0.397951171577885</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.267709182997883</v>
+        <v>0.181024042219046</v>
       </c>
       <c r="F109" t="n">
-        <v>-0.0257728076777513</v>
+        <v>-0.0260831797226208</v>
       </c>
       <c r="G109" t="n">
-        <v>-0.0428687244228668</v>
+        <v>-0.0414807581557045</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.199067650897264</v>
+        <v>0.248587980097371</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -3647,22 +3647,22 @@
         <v>10</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.096741860208471</v>
+        <v>0.359260662002026</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.403806170369553</v>
+        <v>0.0285834793278963</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.0593587078902085</v>
+        <v>-0.0598343411715817</v>
       </c>
       <c r="G110" t="n">
-        <v>-0.0293726457332482</v>
+        <v>-0.0279003696920547</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.315074816746096</v>
+        <v>0.116318190191533</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -3676,22 +3676,22 @@
         <v>12</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.0820849270391164</v>
+        <v>0.258766581086642</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.44568349105687</v>
+        <v>0.465060698590588</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.0598458162525843</v>
+        <v>-0.0603178315378813</v>
       </c>
       <c r="G111" t="n">
-        <v>-0.0369822143970756</v>
+        <v>-0.0354188773977191</v>
       </c>
       <c r="H111" t="n">
-        <v>0.54251152170653</v>
+        <v>0.560797407526188</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -3705,22 +3705,22 @@
         <v>13</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0527444889388151</v>
+        <v>0.282479957724504</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0.436809818065826</v>
+        <v>0.455251610760483</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.0295083031672856</v>
+        <v>-0.0298297877496593</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.0453782676360779</v>
+        <v>-0.0439479824896316</v>
       </c>
       <c r="H112" t="n">
-        <v>0.511696388869189</v>
+        <v>0.529029380999774</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -3734,22 +3734,22 @@
         <v>14</v>
       </c>
       <c r="C113" t="n">
-        <v>0.20609500701425</v>
+        <v>0.328102597319836</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0.345692889303855</v>
+        <v>0.363514600600374</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.0611832177682775</v>
+        <v>-0.0616660522040647</v>
       </c>
       <c r="G113" t="n">
-        <v>-0.04094855586176</v>
+        <v>-0.0393056287256119</v>
       </c>
       <c r="H113" t="n">
-        <v>0.447824662933893</v>
+        <v>0.464486281530051</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -3763,22 +3763,22 @@
         <v>10</v>
       </c>
       <c r="C114" t="n">
-        <v>0.423680310993974</v>
+        <v>0.439900623921779</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0.466535045549344</v>
+        <v>0.475775585735667</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.0303102353998757</v>
+        <v>-0.0306400164127131</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.0529575325680284</v>
+        <v>-0.0514012533360971</v>
       </c>
       <c r="H114" t="n">
-        <v>0.549802813517249</v>
+        <v>0.557816855484477</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
@@ -3792,22 +3792,22 @@
         <v>12</v>
       </c>
       <c r="C115" t="n">
-        <v>0.437928466047386</v>
+        <v>0.449870117486838</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0.502676111270518</v>
+        <v>0.504938672850826</v>
       </c>
       <c r="F115" t="n">
-        <v>-0.0633311128371935</v>
+        <v>-0.0638116033292971</v>
       </c>
       <c r="G115" t="n">
-        <v>-0.0374040909948556</v>
+        <v>-0.035834035249074</v>
       </c>
       <c r="H115" t="n">
-        <v>0.603411315102567</v>
+        <v>0.604584311429197</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -3821,22 +3821,22 @@
         <v>13</v>
       </c>
       <c r="C116" t="n">
-        <v>0.495453143794783</v>
+        <v>0.501995334779687</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.666908529055414</v>
+        <v>0.663752479931879</v>
       </c>
       <c r="F116" t="n">
-        <v>-0.0332126673633507</v>
+        <v>-0.0335526190327016</v>
       </c>
       <c r="G116" t="n">
-        <v>-0.0566989870392011</v>
+        <v>-0.0550799751172567</v>
       </c>
       <c r="H116" t="n">
-        <v>0.756820183457965</v>
+        <v>0.752385074081838</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -3850,22 +3850,22 @@
         <v>14</v>
       </c>
       <c r="C117" t="n">
-        <v>0.602471409853755</v>
+        <v>0.602536702646307</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>0.773765953539742</v>
+        <v>0.765680072066853</v>
       </c>
       <c r="F117" t="n">
-        <v>-0.0341797479004674</v>
+        <v>-0.034516272961334</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.0604878122205505</v>
+        <v>-0.0588340057617705</v>
       </c>
       <c r="H117" t="n">
-        <v>0.86843351366076</v>
+        <v>0.859030350789958</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -3879,22 +3879,22 @@
         <v>10</v>
       </c>
       <c r="C118" t="n">
-        <v>0.589648489221708</v>
+        <v>0.591318639271825</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>0.415243363021157</v>
+        <v>0.43090333223774</v>
       </c>
       <c r="F118" t="n">
-        <v>-0.0633298069903979</v>
+        <v>-0.0638217726419144</v>
       </c>
       <c r="G118" t="n">
-        <v>-0.054031434815406</v>
+        <v>-0.0521931303632985</v>
       </c>
       <c r="H118" t="n">
-        <v>0.532604604826961</v>
+        <v>0.546918235242953</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -3908,22 +3908,22 @@
         <v>12</v>
       </c>
       <c r="C119" t="n">
-        <v>0.366920196108716</v>
+        <v>0.376190486331</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.38823706118145</v>
+        <v>-0.355573938912474</v>
       </c>
       <c r="F119" t="n">
-        <v>-0.035617446280685</v>
+        <v>-0.0359612405170574</v>
       </c>
       <c r="G119" t="n">
-        <v>-0.0678128480001447</v>
+        <v>-0.0660445844088154</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.28480676690062</v>
+        <v>-0.253568113986602</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -3937,22 +3937,22 @@
         <v>13</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0435797526338893</v>
+        <v>0.0658599067970359</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.626453244843893</v>
+        <v>-0.577569838203979</v>
       </c>
       <c r="F120" t="n">
-        <v>-0.0666082105580615</v>
+        <v>-0.0671094558881606</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.0589783193312847</v>
+        <v>-0.0570660909247514</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.500866714954546</v>
+        <v>-0.453394291391067</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -3966,22 +3966,22 @@
         <v>14</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.343649873167608</v>
+        <v>-0.303944166097699</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>-0.775152549666247</v>
+        <v>-0.713536219512085</v>
       </c>
       <c r="F121" t="n">
-        <v>-0.0374706387779576</v>
+        <v>-0.0378231887663902</v>
       </c>
       <c r="G121" t="n">
-        <v>-0.0765853000109042</v>
+        <v>-0.0746807836126329</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.661096610877385</v>
+        <v>-0.601032247133062</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -3995,22 +3995,22 @@
         <v>10</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.531676753069952</v>
+        <v>-0.487216084562215</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.336864156588219</v>
+        <v>-0.302184341620324</v>
       </c>
       <c r="F122" t="n">
-        <v>-0.0389373789876105</v>
+        <v>-0.0392919734722906</v>
       </c>
       <c r="G122" t="n">
-        <v>-0.0781291189415826</v>
+        <v>-0.0762075344901942</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.219797658659026</v>
+        <v>-0.18668483365784</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -4024,22 +4024,22 @@
         <v>12</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.436985170662436</v>
+        <v>-0.397671296104953</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.00947073155138606</v>
+        <v>0.00260521491657292</v>
       </c>
       <c r="F123" t="n">
-        <v>-0.0676685557477785</v>
+        <v>-0.0681758405072769</v>
       </c>
       <c r="G123" t="n">
-        <v>-0.0661387820518505</v>
+        <v>-0.0641154701232786</v>
       </c>
       <c r="H123" t="n">
-        <v>0.124336606248243</v>
+        <v>0.134896525547128</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -4053,22 +4053,22 @@
         <v>13</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.217633860102696</v>
+        <v>-0.191653226999569</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>0.250951997395066</v>
+        <v>0.246502438217558</v>
       </c>
       <c r="F124" t="n">
-        <v>-0.0411476250661839</v>
+        <v>-0.0415159704583494</v>
       </c>
       <c r="G124" t="n">
-        <v>-0.0852379438016513</v>
+        <v>-0.0831901665812302</v>
       </c>
       <c r="H124" t="n">
-        <v>0.377337566262901</v>
+        <v>0.371208575257138</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -4082,22 +4082,22 @@
         <v>14</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0836630458405285</v>
+        <v>0.0901882280324062</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0.430035074106653</v>
+        <v>0.413829600615815</v>
       </c>
       <c r="F125" t="n">
-        <v>-0.0396171959541641</v>
+        <v>-0.0399872429109072</v>
       </c>
       <c r="G125" t="n">
-        <v>-0.0848877845486134</v>
+        <v>-0.0828280964442597</v>
       </c>
       <c r="H125" t="n">
-        <v>0.554540054609431</v>
+        <v>0.536644939970981</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>

--- a/results/1-2021/nipa_interactive.xlsx
+++ b/results/1-2021/nipa_interactive.xlsx
@@ -2922,13 +2922,13 @@
         <v>14</v>
       </c>
       <c r="C85" t="n">
-        <v>4.20956315864192</v>
+        <v>4.61592306458503</v>
       </c>
       <c r="D85" t="n">
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>1.98179929387269</v>
+        <v>3.60723891764511</v>
       </c>
       <c r="F85" t="n">
         <v>0.343802843097872</v>
@@ -2937,7 +2937,7 @@
         <v>-1.58149307025399</v>
       </c>
       <c r="H85" t="n">
-        <v>3.2194895210288</v>
+        <v>4.84492914480122</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -2951,13 +2951,13 @@
         <v>10</v>
       </c>
       <c r="C86" t="n">
-        <v>3.15537590951627</v>
+        <v>3.70290274318318</v>
       </c>
       <c r="D86" t="n">
         <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>-3.73514090223177</v>
+        <v>-3.17047319133654</v>
       </c>
       <c r="F86" t="n">
         <v>8.05514260132611</v>
@@ -2966,7 +2966,7 @@
         <v>-8.51784448466115</v>
       </c>
       <c r="H86" t="n">
-        <v>-3.27243901889672</v>
+        <v>-2.70777130800149</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -2980,22 +2980,22 @@
         <v>12</v>
       </c>
       <c r="C87" t="n">
-        <v>4.66268956351715</v>
+        <v>5.66805290827234</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>6.11432227766207</v>
+        <v>7.94566832201516</v>
       </c>
       <c r="F87" t="n">
-        <v>2.12640679447392</v>
+        <v>3.52093821755573</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.81519826548609</v>
+        <v>-0.781367762079851</v>
       </c>
       <c r="H87" t="n">
-        <v>5.80311374867424</v>
+        <v>5.20609786653928</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -3009,22 +3009,22 @@
         <v>13</v>
       </c>
       <c r="C88" t="n">
-        <v>0.30169373943152</v>
+        <v>1.41477544935092</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>-3.15420571157692</v>
+        <v>-2.72333225092005</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.433305045440083</v>
+        <v>-0.440977972963541</v>
       </c>
       <c r="G88" t="n">
-        <v>0.631680432607448</v>
+        <v>0.617372007528785</v>
       </c>
       <c r="H88" t="n">
-        <v>-3.35258109874428</v>
+        <v>-2.89972628548529</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -3038,22 +3038,22 @@
         <v>14</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.13028873252496</v>
+        <v>-0.840564041133739</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>-3.74613059395323</v>
+        <v>-5.41411904429353</v>
       </c>
       <c r="F89" t="n">
-        <v>1.40282713810376</v>
+        <v>-0.627418459902051</v>
       </c>
       <c r="G89" t="n">
-        <v>1.00399750886878</v>
+        <v>-0.0739178064156311</v>
       </c>
       <c r="H89" t="n">
-        <v>-6.15295524092578</v>
+        <v>-4.71278277797585</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -3067,22 +3067,22 @@
         <v>10</v>
       </c>
       <c r="C90" t="n">
-        <v>-1.10552350060057</v>
+        <v>-0.478596067143223</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>-3.63607997453419</v>
+        <v>-1.72260129537447</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.265966128268555</v>
+        <v>-0.262339790122785</v>
       </c>
       <c r="G90" t="n">
-        <v>0.24618470096692</v>
+        <v>0.248954296970761</v>
       </c>
       <c r="H90" t="n">
-        <v>-3.61629854723256</v>
+        <v>-1.70921580222245</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -3096,22 +3096,22 @@
         <v>12</v>
       </c>
       <c r="C91" t="n">
-        <v>-3.65558447009658</v>
+        <v>-2.98733640067918</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>-4.08592160032198</v>
+        <v>-2.08929301212865</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.984763208100968</v>
+        <v>-0.801901109044106</v>
       </c>
       <c r="G91" t="n">
-        <v>0.246874278278473</v>
+        <v>0.249754914901506</v>
       </c>
       <c r="H91" t="n">
-        <v>-3.34803267049948</v>
+        <v>-1.53714681798605</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -3125,22 +3125,22 @@
         <v>13</v>
       </c>
       <c r="C92" t="n">
-        <v>-3.50916167314759</v>
+        <v>-2.82571759992802</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>-2.56851452378098</v>
+        <v>-2.07685704791541</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.267623733422653</v>
+        <v>-0.265419571153189</v>
       </c>
       <c r="G92" t="n">
-        <v>0.191909196610438</v>
+        <v>0.194782656159482</v>
       </c>
       <c r="H92" t="n">
-        <v>-2.49279998696876</v>
+        <v>-2.0062201329217</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -3154,22 +3154,22 @@
         <v>14</v>
       </c>
       <c r="C93" t="n">
-        <v>-2.87257806261242</v>
+        <v>-1.66127947848687</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>-1.19979615181252</v>
+        <v>-0.756366558528937</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.770152302629177</v>
+        <v>-0.241644033975483</v>
       </c>
       <c r="G93" t="n">
-        <v>0.127347402518761</v>
+        <v>0.130260058955748</v>
       </c>
       <c r="H93" t="n">
-        <v>-0.556991251702105</v>
+        <v>-0.644982583509202</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -3183,22 +3183,22 @@
         <v>10</v>
       </c>
       <c r="C94" t="n">
-        <v>-2.13949253962507</v>
+        <v>-1.3161133912848</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.703737882584815</v>
+        <v>-0.341936946566194</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.269538333145193</v>
+        <v>-0.272335877921918</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0699402342212125</v>
+        <v>0.0727377789979377</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.504139783660835</v>
+        <v>-0.142338847642214</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -3212,22 +3212,22 @@
         <v>12</v>
       </c>
       <c r="C95" t="n">
-        <v>-1.50985260886772</v>
+        <v>-1.10822895562795</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>-1.56736187729258</v>
+        <v>-1.25775526950128</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.235875214578652</v>
+        <v>-0.238700032087051</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0447141785598412</v>
+        <v>0.0475389960682397</v>
       </c>
       <c r="H95" t="n">
-        <v>-1.37620084127377</v>
+        <v>-1.06659423348247</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -3241,22 +3241,22 @@
         <v>13</v>
       </c>
       <c r="C96" t="n">
-        <v>-1.26742842011695</v>
+        <v>-0.911999581883575</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>-1.59881776877788</v>
+        <v>-1.2919395529379</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.108112447817092</v>
+        <v>-0.110826486489794</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.0726245831531078</v>
+        <v>-0.0699105444804062</v>
       </c>
       <c r="H96" t="n">
-        <v>-1.41808073780768</v>
+        <v>-1.1112025219677</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -3270,22 +3270,22 @@
         <v>14</v>
       </c>
       <c r="C97" t="n">
-        <v>-1.3529744429525</v>
+        <v>-0.98858387012838</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>-1.54198024315473</v>
+        <v>-1.06270371150816</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.271442492977508</v>
+        <v>-0.274187186645867</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0973336462879242</v>
+        <v>0.100078339956284</v>
       </c>
       <c r="H97" t="n">
-        <v>-1.36787139646515</v>
+        <v>-0.888594864818573</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -3299,22 +3299,22 @@
         <v>10</v>
       </c>
       <c r="C98" t="n">
-        <v>-1.46933557431724</v>
+        <v>-1.08367065073543</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>-1.16918240804375</v>
+        <v>-0.722284068994408</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.0845420277741059</v>
+        <v>-0.0844642513687325</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.0941533398099169</v>
+        <v>-0.0942311162152903</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.990487040459726</v>
+        <v>-0.543588701410385</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -3328,22 +3328,22 @@
         <v>12</v>
       </c>
       <c r="C99" t="n">
-        <v>-1.52919508442819</v>
+        <v>-0.986196368657144</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>-1.80679991773641</v>
+        <v>-0.867858141188118</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.0513597364333957</v>
+        <v>-0.0516870847993143</v>
       </c>
       <c r="G99" t="n">
-        <v>-1.07191698181022</v>
+        <v>-0.116415306782093</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.683523199492799</v>
+        <v>-0.699755749606711</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -3357,22 +3357,22 @@
         <v>13</v>
       </c>
       <c r="C100" t="n">
-        <v>-1.32561961025788</v>
+        <v>-0.872713599471306</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.784515872096627</v>
+        <v>-0.838008476194546</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.0472688848291936</v>
+        <v>-0.0475857230967718</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.088974389090114</v>
+        <v>-0.100342825384752</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.648272598177319</v>
+        <v>-0.690079927713022</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -3386,22 +3386,22 @@
         <v>14</v>
       </c>
       <c r="C101" t="n">
-        <v>-1.04152218692463</v>
+        <v>-0.72010479443551</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.405590549821714</v>
+        <v>-0.452268491364972</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.0517375384890388</v>
+        <v>-0.0520464609651241</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.0683292118139848</v>
+        <v>-0.0796620908325034</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.285523799518691</v>
+        <v>-0.320559939567344</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -3415,22 +3415,22 @@
         <v>10</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.80037664532457</v>
+        <v>-0.601607280515654</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.204600241643529</v>
+        <v>-0.248294013314986</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.0555072075986859</v>
+        <v>-0.0561737705260942</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.0641023261848279</v>
+        <v>-0.074979801892307</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.0849907078600149</v>
+        <v>-0.117140440896585</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -3444,22 +3444,22 @@
         <v>12</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.353191360138442</v>
+        <v>-0.399878821460039</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.0180587769919021</v>
+        <v>-0.0609443049656587</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.0224679078334807</v>
+        <v>-0.0229704153109425</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.0837584141020364</v>
+        <v>-0.0946511434133845</v>
       </c>
       <c r="H103" t="n">
-        <v>0.088167544943615</v>
+        <v>0.0566772537586683</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -3473,22 +3473,22 @@
         <v>13</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.127071560209581</v>
+        <v>-0.171196504509613</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.119963327618818</v>
+        <v>0.0767207916071574</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.0596491606794527</v>
+        <v>-0.0602851135627423</v>
       </c>
       <c r="G104" t="n">
-        <v>-0.0593619137665613</v>
+        <v>-0.0699662184424512</v>
       </c>
       <c r="H104" t="n">
-        <v>0.238974402064832</v>
+        <v>0.206972123612351</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -3502,22 +3502,22 @@
         <v>14</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0520013063009374</v>
+        <v>0.00817972555210844</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>0.310700916220359</v>
+        <v>0.265236428881915</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.0613338790140754</v>
+        <v>-0.0619526820295227</v>
       </c>
       <c r="G105" t="n">
-        <v>-0.0481704212679692</v>
+        <v>-0.0586486800844774</v>
       </c>
       <c r="H105" t="n">
-        <v>0.420205216502404</v>
+        <v>0.385837790995915</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -3531,22 +3531,22 @@
         <v>10</v>
       </c>
       <c r="C106" t="n">
-        <v>0.148987746119653</v>
+        <v>0.102945117857838</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.183345517631335</v>
+        <v>0.130767555907934</v>
       </c>
       <c r="F106" t="n">
-        <v>-0.0625741178247698</v>
+        <v>-0.0632473297696727</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.039539736761942</v>
+        <v>-0.0498674205095171</v>
       </c>
       <c r="H106" t="n">
-        <v>0.285459372218046</v>
+        <v>0.243882306187124</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -3560,22 +3560,22 @@
         <v>12</v>
       </c>
       <c r="C107" t="n">
-        <v>0.370261695930659</v>
+        <v>-0.324589352302351</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.867037022252123</v>
+        <v>-1.77108218560641</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.733997425321219</v>
+        <v>-0.780492110272311</v>
       </c>
       <c r="G107" t="n">
-        <v>0.643184394015549</v>
+        <v>-0.19694488909876</v>
       </c>
       <c r="H107" t="n">
-        <v>0.957850053557792</v>
+        <v>-0.793645186235344</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -3589,13 +3589,13 @@
         <v>13</v>
       </c>
       <c r="C108" t="n">
-        <v>0.430370390078214</v>
+        <v>-0.637009608457515</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>0.360398104209035</v>
+        <v>-1.1729602330135</v>
       </c>
       <c r="F108" t="n">
         <v>-0.0563166285121017</v>
@@ -3604,7 +3604,7 @@
         <v>-0.0326034994455384</v>
       </c>
       <c r="H108" t="n">
-        <v>0.449318232166675</v>
+        <v>-1.08404010505586</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -3618,13 +3618,13 @@
         <v>14</v>
       </c>
       <c r="C109" t="n">
-        <v>0.397951171577885</v>
+        <v>-1.01958852271903</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>0.181024042219046</v>
+        <v>-1.26507922816413</v>
       </c>
       <c r="F109" t="n">
         <v>-0.0260831797226208</v>
@@ -3633,7 +3633,7 @@
         <v>-0.0414807581557045</v>
       </c>
       <c r="H109" t="n">
-        <v>0.248587980097371</v>
+        <v>-1.19751529028581</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -3647,13 +3647,13 @@
         <v>10</v>
       </c>
       <c r="C110" t="n">
-        <v>0.359260662002026</v>
+        <v>-1.38481320249494</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0285834793278963</v>
+        <v>-1.33013116319574</v>
       </c>
       <c r="F110" t="n">
         <v>-0.0598343411715817</v>
@@ -3662,7 +3662,7 @@
         <v>-0.0279003696920547</v>
       </c>
       <c r="H110" t="n">
-        <v>0.116318190191533</v>
+        <v>-1.2423964523321</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -3676,13 +3676,13 @@
         <v>12</v>
       </c>
       <c r="C111" t="n">
-        <v>0.258766581086642</v>
+        <v>-0.922073293515113</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.465060698590588</v>
+        <v>0.0798774503129056</v>
       </c>
       <c r="F111" t="n">
         <v>-0.0603178315378813</v>
@@ -3691,7 +3691,7 @@
         <v>-0.0354188773977191</v>
       </c>
       <c r="H111" t="n">
-        <v>0.560797407526188</v>
+        <v>0.175614159248506</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -3705,13 +3705,13 @@
         <v>13</v>
       </c>
       <c r="C112" t="n">
-        <v>0.282479957724504</v>
+        <v>-0.60984929915171</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0.455251610760483</v>
+        <v>0.0759357444401149</v>
       </c>
       <c r="F112" t="n">
         <v>-0.0298297877496593</v>
@@ -3720,7 +3720,7 @@
         <v>-0.0439479824896316</v>
       </c>
       <c r="H112" t="n">
-        <v>0.529029380999774</v>
+        <v>0.149713514679406</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -3734,13 +3734,13 @@
         <v>14</v>
       </c>
       <c r="C113" t="n">
-        <v>0.328102597319836</v>
+        <v>-0.296084559179462</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0.363514600600374</v>
+        <v>-0.0100202682751382</v>
       </c>
       <c r="F113" t="n">
         <v>-0.0616660522040647</v>
@@ -3749,7 +3749,7 @@
         <v>-0.0393056287256119</v>
       </c>
       <c r="H113" t="n">
-        <v>0.464486281530051</v>
+        <v>0.0909514126545383</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -3763,13 +3763,13 @@
         <v>10</v>
       </c>
       <c r="C114" t="n">
-        <v>0.439900623921779</v>
+        <v>0.0634384401861443</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0.475775585735667</v>
+        <v>0.107960834266689</v>
       </c>
       <c r="F114" t="n">
         <v>-0.0306400164127131</v>
@@ -3778,7 +3778,7 @@
         <v>-0.0514012533360971</v>
       </c>
       <c r="H114" t="n">
-        <v>0.557816855484477</v>
+        <v>0.190002104015499</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
@@ -3792,13 +3792,13 @@
         <v>12</v>
       </c>
       <c r="C115" t="n">
-        <v>0.449870117486838</v>
+        <v>0.0940040156394302</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0.504938672850826</v>
+        <v>0.202139752126049</v>
       </c>
       <c r="F115" t="n">
         <v>-0.0638116033292971</v>
@@ -3807,7 +3807,7 @@
         <v>-0.035834035249074</v>
       </c>
       <c r="H115" t="n">
-        <v>0.604584311429197</v>
+        <v>0.30178539070442</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -3821,13 +3821,13 @@
         <v>13</v>
       </c>
       <c r="C116" t="n">
-        <v>0.501995334779687</v>
+        <v>0.166390782783786</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.663752479931879</v>
+        <v>0.365482813017538</v>
       </c>
       <c r="F116" t="n">
         <v>-0.0335526190327016</v>
@@ -3836,7 +3836,7 @@
         <v>-0.0550799751172567</v>
       </c>
       <c r="H116" t="n">
-        <v>0.752385074081838</v>
+        <v>0.454115407167496</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -3850,13 +3850,13 @@
         <v>14</v>
       </c>
       <c r="C117" t="n">
-        <v>0.602536702646307</v>
+        <v>0.286840212735898</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>0.765680072066853</v>
+        <v>0.47177745153331</v>
       </c>
       <c r="F117" t="n">
         <v>-0.034516272961334</v>
@@ -3865,7 +3865,7 @@
         <v>-0.0588340057617705</v>
       </c>
       <c r="H117" t="n">
-        <v>0.859030350789958</v>
+        <v>0.565127730256415</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -3879,13 +3879,13 @@
         <v>10</v>
       </c>
       <c r="C118" t="n">
-        <v>0.591318639271825</v>
+        <v>0.295164547196129</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>0.43090333223774</v>
+        <v>0.141258172107611</v>
       </c>
       <c r="F118" t="n">
         <v>-0.0638217726419144</v>
@@ -3894,7 +3894,7 @@
         <v>-0.0521931303632985</v>
       </c>
       <c r="H118" t="n">
-        <v>0.546918235242953</v>
+        <v>0.257273075112824</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -3908,7 +3908,7 @@
         <v>12</v>
       </c>
       <c r="C119" t="n">
-        <v>0.376190486331</v>
+        <v>0.155736124436498</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -3937,7 +3937,7 @@
         <v>13</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0658599067970359</v>
+        <v>-0.0800270383688814</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>14</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.303944166097699</v>
+        <v>-0.37635545613023</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>10</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.487216084562215</v>
+        <v>-0.487216084562214</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>12</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.397671296104953</v>
+        <v>-0.397671296104952</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         <v>13</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.191653226999569</v>
+        <v>-0.191653226999568</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -4082,7 +4082,7 @@
         <v>14</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0901882280324062</v>
+        <v>0.0901882280324069</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
